--- a/ResearchAssistant/resultados/PorVariablesDeEstudio/resumenResultados.xlsx
+++ b/ResearchAssistant/resultados/PorVariablesDeEstudio/resumenResultados.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2DAC44-05E4-4803-AC39-2914DC407ECE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF31077-F864-4986-9033-9C378133B166}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -735,14 +735,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
     <col min="10" max="10" width="27.85546875" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
     <col min="13" max="13" width="37.7109375" customWidth="1"/>
